--- a/pidis/expdata/10021.xlsx
+++ b/pidis/expdata/10021.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jethier/Documents/fitpack/database/pdis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/pidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA5C928-C2CF-AC42-B360-F15FB9A65E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23680" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -50,9 +60,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Apar(stat)_u</t>
-  </si>
-  <si>
     <t>set*</t>
   </si>
   <si>
@@ -70,12 +77,15 @@
   <si>
     <t>norm_c</t>
   </si>
+  <si>
+    <t>stat_u</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -88,6 +98,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,10 +132,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -130,6 +146,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -397,16 +416,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,19 +451,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -454,11 +476,11 @@
       <c r="D2" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="2">
         <v>5.2999999999999999E-2</v>
@@ -474,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -490,11 +512,11 @@
       <c r="D3" s="2">
         <v>0.3</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="2">
         <v>-6.7000000000000004E-2</v>
@@ -510,10 +532,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -526,11 +548,11 @@
       <c r="D4" s="2">
         <v>0.31</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G4" s="2">
         <v>-1.4E-2</v>
@@ -546,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -562,11 +584,11 @@
       <c r="D5" s="2">
         <v>0.33</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="2">
         <v>1.7000000000000001E-2</v>
@@ -582,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -598,11 +620,11 @@
       <c r="D6" s="2">
         <v>0.35</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <v>1E-3</v>
@@ -618,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -634,11 +656,11 @@
       <c r="D7" s="2">
         <v>0.36</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G7" s="2">
         <v>2.1999999999999999E-2</v>
@@ -654,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -670,11 +692,11 @@
       <c r="D8" s="2">
         <v>0.38</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G8" s="2">
         <v>-1.7000000000000001E-2</v>
@@ -690,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -706,11 +728,11 @@
       <c r="D9" s="2">
         <v>0.4</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="2">
         <v>-2E-3</v>
@@ -726,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -742,11 +764,11 @@
       <c r="D10" s="2">
         <v>0.41</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="2">
         <v>3.2000000000000001E-2</v>
@@ -762,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -778,11 +800,11 @@
       <c r="D11" s="2">
         <v>0.43</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G11" s="2">
         <v>-4.0000000000000001E-3</v>
@@ -798,10 +820,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -814,11 +836,11 @@
       <c r="D12" s="2">
         <v>0.44</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
+      <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G12" s="2">
         <v>8.0000000000000002E-3</v>
@@ -834,10 +856,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -850,11 +872,11 @@
       <c r="D13" s="2">
         <v>0.45</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>11</v>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G13" s="2">
         <v>3.7999999999999999E-2</v>
@@ -870,10 +892,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -886,11 +908,11 @@
       <c r="D14" s="2">
         <v>0.47</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="2">
         <v>-2E-3</v>
@@ -906,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -922,11 +944,11 @@
       <c r="D15" s="2">
         <v>0.48</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="2">
         <v>-1.7000000000000001E-2</v>
@@ -942,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -958,11 +980,11 @@
       <c r="D16" s="2">
         <v>0.49</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G16" s="2">
         <v>-4.0000000000000001E-3</v>
@@ -978,10 +1000,10 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -994,11 +1016,11 @@
       <c r="D17" s="2">
         <v>0.5</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G17" s="2">
         <v>1.4999999999999999E-2</v>
@@ -1014,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1030,11 +1052,11 @@
       <c r="D18" s="2">
         <v>0.51</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G18" s="2">
         <v>2.8000000000000001E-2</v>
@@ -1050,10 +1072,10 @@
         <v>1</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1066,11 +1088,11 @@
       <c r="D19" s="2">
         <v>0.52</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>11</v>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G19" s="2">
         <v>1.2E-2</v>
@@ -1086,10 +1108,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1102,11 +1124,11 @@
       <c r="D20" s="2">
         <v>0.53</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>11</v>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="2">
         <v>1.6E-2</v>
@@ -1122,10 +1144,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1138,11 +1160,11 @@
       <c r="D21" s="2">
         <v>0.53</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G21" s="2">
         <v>8.9999999999999993E-3</v>
@@ -1158,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1174,11 +1196,11 @@
       <c r="D22" s="2">
         <v>0.54</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="2">
         <v>2.8000000000000001E-2</v>
@@ -1194,10 +1216,10 @@
         <v>1</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1210,11 +1232,11 @@
       <c r="D23" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G23" s="2">
         <v>3.1E-2</v>
@@ -1230,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1246,11 +1268,11 @@
       <c r="D24" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G24" s="2">
         <v>-3.2000000000000001E-2</v>
@@ -1266,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1282,11 +1304,11 @@
       <c r="D25" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G25" s="2">
         <v>2.9000000000000001E-2</v>
@@ -1302,10 +1324,10 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1318,11 +1340,11 @@
       <c r="D26" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>11</v>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G26" s="2">
         <v>-3.9E-2</v>
@@ -1338,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1354,11 +1376,11 @@
       <c r="D27" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>11</v>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G27" s="2">
         <v>-5.0000000000000001E-3</v>
@@ -1374,10 +1396,10 @@
         <v>1</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1390,11 +1412,11 @@
       <c r="D28" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>11</v>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G28" s="2">
         <v>-8.0000000000000002E-3</v>
@@ -1410,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1426,11 +1448,11 @@
       <c r="D29" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="2">
         <v>-2.1000000000000001E-2</v>
@@ -1446,10 +1468,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1462,11 +1484,11 @@
       <c r="D30" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>11</v>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G30" s="2">
         <v>1E-3</v>
@@ -1482,10 +1504,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1498,11 +1520,11 @@
       <c r="D31" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>11</v>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G31" s="2">
         <v>0.01</v>
@@ -1518,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1534,11 +1556,11 @@
       <c r="D32" s="2">
         <v>0.6</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>11</v>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G32" s="2">
         <v>0.11600000000000001</v>
@@ -1554,10 +1576,10 @@
         <v>2</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1570,11 +1592,11 @@
       <c r="D33" s="2">
         <v>0.64</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>11</v>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G33" s="2">
         <v>-3.5999999999999997E-2</v>
@@ -1590,10 +1612,10 @@
         <v>2</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1606,11 +1628,11 @@
       <c r="D34" s="2">
         <v>0.69</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>11</v>
+      <c r="E34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G34" s="2">
         <v>1.2999999999999999E-2</v>
@@ -1626,10 +1648,10 @@
         <v>2</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1642,11 +1664,11 @@
       <c r="D35" s="2">
         <v>0.74</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>11</v>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G35" s="2">
         <v>-1.2999999999999999E-2</v>
@@ -1662,10 +1684,10 @@
         <v>2</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1678,11 +1700,11 @@
       <c r="D36" s="2">
         <v>0.78</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>11</v>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G36" s="2">
         <v>1.6E-2</v>
@@ -1698,10 +1720,10 @@
         <v>2</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1714,11 +1736,11 @@
       <c r="D37" s="2">
         <v>0.82</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>11</v>
+      <c r="E37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G37" s="2">
         <v>2.4E-2</v>
@@ -1734,10 +1756,10 @@
         <v>2</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1750,11 +1772,11 @@
       <c r="D38" s="2">
         <v>0.86</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>11</v>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G38" s="2">
         <v>5.1999999999999998E-2</v>
@@ -1770,10 +1792,10 @@
         <v>2</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1786,11 +1808,11 @@
       <c r="D39" s="2">
         <v>0.9</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>11</v>
+      <c r="E39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G39" s="2">
         <v>1.2E-2</v>
@@ -1806,10 +1828,10 @@
         <v>2</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1822,11 +1844,11 @@
       <c r="D40" s="2">
         <v>0.93</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>11</v>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G40" s="2">
         <v>3.5999999999999997E-2</v>
@@ -1842,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1858,11 +1880,11 @@
       <c r="D41" s="2">
         <v>0.97</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>11</v>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G41" s="2">
         <v>2.7E-2</v>
@@ -1878,10 +1900,10 @@
         <v>2</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1894,11 +1916,11 @@
       <c r="D42" s="2">
         <v>1</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>11</v>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G42" s="2">
         <v>5.0000000000000001E-3</v>
@@ -1914,10 +1936,10 @@
         <v>2</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1930,11 +1952,11 @@
       <c r="D43" s="2">
         <v>1.03</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>11</v>
+      <c r="E43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G43" s="2">
         <v>4.3999999999999997E-2</v>
@@ -1950,10 +1972,10 @@
         <v>2</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -1966,11 +1988,11 @@
       <c r="D44" s="2">
         <v>1.06</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>11</v>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G44" s="2">
         <v>1.9E-2</v>
@@ -1986,10 +2008,10 @@
         <v>2</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -2002,11 +2024,11 @@
       <c r="D45" s="2">
         <v>1.0900000000000001</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>11</v>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G45" s="2">
         <v>2.1000000000000001E-2</v>
@@ -2022,10 +2044,10 @@
         <v>2</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -2038,11 +2060,11 @@
       <c r="D46" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>11</v>
+      <c r="E46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G46" s="2">
         <v>3.4000000000000002E-2</v>
@@ -2058,10 +2080,10 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -2074,11 +2096,11 @@
       <c r="D47" s="2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>11</v>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="2">
         <v>3.5999999999999997E-2</v>
@@ -2094,10 +2116,10 @@
         <v>2</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -2110,11 +2132,11 @@
       <c r="D48" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>11</v>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G48" s="2">
         <v>6.8000000000000005E-2</v>
@@ -2130,10 +2152,10 @@
         <v>2</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -2146,11 +2168,11 @@
       <c r="D49" s="2">
         <v>1.19</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>11</v>
+      <c r="E49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G49" s="2">
         <v>0.02</v>
@@ -2166,10 +2188,10 @@
         <v>2</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -2182,11 +2204,11 @@
       <c r="D50" s="2">
         <v>1.21</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>11</v>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G50" s="2">
         <v>2.4E-2</v>
@@ -2202,10 +2224,10 @@
         <v>2</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -2218,11 +2240,11 @@
       <c r="D51" s="2">
         <v>1.22</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>11</v>
+      <c r="E51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G51" s="2">
         <v>2.1999999999999999E-2</v>
@@ -2238,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -2254,11 +2276,11 @@
       <c r="D52" s="2">
         <v>1.24</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>11</v>
+      <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G52" s="2">
         <v>2.8000000000000001E-2</v>
@@ -2274,10 +2296,10 @@
         <v>2</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -2290,11 +2312,11 @@
       <c r="D53" s="2">
         <v>1.25</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>11</v>
+      <c r="E53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G53" s="2">
         <v>0</v>
@@ -2310,10 +2332,10 @@
         <v>2</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>9.6999999999999993</v>
       </c>
@@ -2326,11 +2348,11 @@
       <c r="D54" s="2">
         <v>1.26</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>11</v>
+      <c r="E54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G54" s="2">
         <v>-1.7999999999999999E-2</v>
@@ -2346,10 +2368,10 @@
         <v>2</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>16.2</v>
       </c>
@@ -2362,11 +2384,11 @@
       <c r="D55" s="2">
         <v>0.47</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>11</v>
+      <c r="E55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G55" s="2">
         <v>-1.7999999999999999E-2</v>
@@ -2382,10 +2404,10 @@
         <v>3</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>16.2</v>
       </c>
@@ -2398,11 +2420,11 @@
       <c r="D56" s="2">
         <v>0.51</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>11</v>
+      <c r="E56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G56" s="2">
         <v>-3.5000000000000003E-2</v>
@@ -2418,10 +2440,10 @@
         <v>3</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>16.2</v>
       </c>
@@ -2434,11 +2456,11 @@
       <c r="D57" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>11</v>
+      <c r="E57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G57" s="2">
         <v>-1.2E-2</v>
@@ -2454,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>16.2</v>
       </c>
@@ -2470,11 +2492,11 @@
       <c r="D58" s="2">
         <v>0.59</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>11</v>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G58" s="2">
         <v>1.2E-2</v>
@@ -2490,10 +2512,10 @@
         <v>3</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>16.2</v>
       </c>
@@ -2506,11 +2528,11 @@
       <c r="D59" s="2">
         <v>0.64</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>11</v>
+      <c r="E59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G59" s="2">
         <v>-8.9999999999999993E-3</v>
@@ -2526,10 +2548,10 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>16.2</v>
       </c>
@@ -2542,11 +2564,11 @@
       <c r="D60" s="2">
         <v>0.68</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>11</v>
+      <c r="E60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G60" s="2">
         <v>5.6000000000000001E-2</v>
@@ -2562,10 +2584,10 @@
         <v>3</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>16.2</v>
       </c>
@@ -2578,11 +2600,11 @@
       <c r="D61" s="2">
         <v>0.73</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>11</v>
+      <c r="E61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G61" s="2">
         <v>-2.1000000000000001E-2</v>
@@ -2598,10 +2620,10 @@
         <v>3</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>16.2</v>
       </c>
@@ -2614,11 +2636,11 @@
       <c r="D62" s="2">
         <v>0.78</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>11</v>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G62" s="2">
         <v>4.5999999999999999E-2</v>
@@ -2634,10 +2656,10 @@
         <v>3</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>16.2</v>
       </c>
@@ -2650,11 +2672,11 @@
       <c r="D63" s="2">
         <v>0.83</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>11</v>
+      <c r="E63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G63" s="2">
         <v>3.0000000000000001E-3</v>
@@ -2670,10 +2692,10 @@
         <v>3</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>16.2</v>
       </c>
@@ -2686,11 +2708,11 @@
       <c r="D64" s="2">
         <v>0.87</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>11</v>
+      <c r="E64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G64" s="2">
         <v>2.1000000000000001E-2</v>
@@ -2706,10 +2728,10 @@
         <v>3</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>16.2</v>
       </c>
@@ -2722,11 +2744,11 @@
       <c r="D65" s="2">
         <v>0.92</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>11</v>
+      <c r="E65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G65" s="2">
         <v>2.5999999999999999E-2</v>
@@ -2742,10 +2764,10 @@
         <v>3</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>16.2</v>
       </c>
@@ -2758,11 +2780,11 @@
       <c r="D66" s="2">
         <v>0.97</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>11</v>
+      <c r="E66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G66" s="2">
         <v>-1.6E-2</v>
@@ -2778,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>16.2</v>
       </c>
@@ -2794,11 +2816,11 @@
       <c r="D67" s="2">
         <v>1.01</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>11</v>
+      <c r="E67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G67" s="2">
         <v>3.7999999999999999E-2</v>
@@ -2814,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>16.2</v>
       </c>
@@ -2830,11 +2852,11 @@
       <c r="D68" s="2">
         <v>1.06</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>11</v>
+      <c r="E68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G68" s="2">
         <v>1.9E-2</v>
@@ -2850,10 +2872,10 @@
         <v>3</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>16.2</v>
       </c>
@@ -2866,11 +2888,11 @@
       <c r="D69" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>11</v>
+      <c r="E69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G69" s="2">
         <v>1.6E-2</v>
@@ -2886,10 +2908,10 @@
         <v>3</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>16.2</v>
       </c>
@@ -2902,11 +2924,11 @@
       <c r="D70" s="2">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>11</v>
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G70" s="2">
         <v>6.3E-2</v>
@@ -2922,10 +2944,10 @@
         <v>3</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>16.2</v>
       </c>
@@ -2938,11 +2960,11 @@
       <c r="D71" s="2">
         <v>1.18</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>11</v>
+      <c r="E71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G71" s="2">
         <v>0.05</v>
@@ -2958,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>16.2</v>
       </c>
@@ -2974,11 +2996,11 @@
       <c r="D72" s="2">
         <v>1.22</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>11</v>
+      <c r="E72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G72" s="2">
         <v>-2.5000000000000001E-2</v>
@@ -2994,10 +3016,10 @@
         <v>3</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>16.2</v>
       </c>
@@ -3010,11 +3032,11 @@
       <c r="D73" s="2">
         <v>1.25</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>11</v>
+      <c r="E73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G73" s="2">
         <v>4.2999999999999997E-2</v>
@@ -3030,10 +3052,10 @@
         <v>3</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>16.2</v>
       </c>
@@ -3046,11 +3068,11 @@
       <c r="D74" s="2">
         <v>1.29</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>11</v>
+      <c r="E74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G74" s="2">
         <v>4.2000000000000003E-2</v>
@@ -3066,10 +3088,10 @@
         <v>3</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>16.2</v>
       </c>
@@ -3082,11 +3104,11 @@
       <c r="D75" s="2">
         <v>1.32</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>11</v>
+      <c r="E75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G75" s="2">
         <v>1.6E-2</v>
@@ -3102,10 +3124,10 @@
         <v>3</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>16.2</v>
       </c>
@@ -3118,11 +3140,11 @@
       <c r="D76" s="2">
         <v>1.35</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>11</v>
+      <c r="E76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G76" s="2">
         <v>2.1999999999999999E-2</v>
@@ -3138,10 +3160,10 @@
         <v>3</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>16.2</v>
       </c>
@@ -3154,11 +3176,11 @@
       <c r="D77" s="2">
         <v>1.37</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>11</v>
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G77" s="2">
         <v>6.2E-2</v>
@@ -3174,10 +3196,10 @@
         <v>3</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>16.2</v>
       </c>
@@ -3190,11 +3212,11 @@
       <c r="D78" s="2">
         <v>1.4</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>11</v>
+      <c r="E78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G78" s="2">
         <v>2.3E-2</v>
@@ -3210,10 +3232,10 @@
         <v>3</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>16.2</v>
       </c>
@@ -3226,11 +3248,11 @@
       <c r="D79" s="2">
         <v>1.42</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>11</v>
+      <c r="E79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G79" s="2">
         <v>-3.1E-2</v>
@@ -3246,10 +3268,10 @@
         <v>3</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>16.2</v>
       </c>
@@ -3262,11 +3284,11 @@
       <c r="D80" s="2">
         <v>1.44</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>11</v>
+      <c r="E80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G80" s="2">
         <v>1.2999999999999999E-2</v>
@@ -3282,10 +3304,10 @@
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>16.2</v>
       </c>
@@ -3298,11 +3320,11 @@
       <c r="D81" s="2">
         <v>1.46</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>11</v>
+      <c r="E81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G81" s="2">
         <v>8.8999999999999996E-2</v>
@@ -3318,10 +3340,10 @@
         <v>3</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>16.2</v>
       </c>
@@ -3334,11 +3356,11 @@
       <c r="D82" s="2">
         <v>1.48</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>11</v>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G82" s="2">
         <v>1.4E-2</v>
@@ -3354,10 +3376,10 @@
         <v>3</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>16.2</v>
       </c>
@@ -3370,11 +3392,11 @@
       <c r="D83" s="2">
         <v>1.49</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>11</v>
+      <c r="E83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G83" s="2">
         <v>7.0999999999999994E-2</v>
@@ -3390,10 +3412,10 @@
         <v>3</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>16.2</v>
       </c>
@@ -3406,11 +3428,11 @@
       <c r="D84" s="2">
         <v>1.5</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>11</v>
+      <c r="E84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G84" s="2">
         <v>3.6999999999999998E-2</v>
@@ -3426,10 +3448,10 @@
         <v>3</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>16.2</v>
       </c>
@@ -3442,11 +3464,11 @@
       <c r="D85" s="2">
         <v>1.06</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>11</v>
+      <c r="E85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G85" s="2">
         <v>-7.4999999999999997E-2</v>
@@ -3462,10 +3484,10 @@
         <v>4</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>16.2</v>
       </c>
@@ -3478,11 +3500,11 @@
       <c r="D86" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>11</v>
+      <c r="E86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G86" s="2">
         <v>6.2E-2</v>
@@ -3498,10 +3520,10 @@
         <v>4</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>16.2</v>
       </c>
@@ -3514,11 +3536,11 @@
       <c r="D87" s="2">
         <v>1.26</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>11</v>
+      <c r="E87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G87" s="2">
         <v>-3.0000000000000001E-3</v>
@@ -3534,10 +3556,10 @@
         <v>4</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>16.2</v>
       </c>
@@ -3550,11 +3572,11 @@
       <c r="D88" s="2">
         <v>1.36</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>11</v>
+      <c r="E88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G88" s="2">
         <v>5.3999999999999999E-2</v>
@@ -3570,10 +3592,10 @@
         <v>4</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>16.2</v>
       </c>
@@ -3586,11 +3608,11 @@
       <c r="D89" s="2">
         <v>1.47</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>11</v>
+      <c r="E89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G89" s="2">
         <v>-7.2999999999999995E-2</v>
@@ -3606,10 +3628,10 @@
         <v>4</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>16.2</v>
       </c>
@@ -3622,11 +3644,11 @@
       <c r="D90" s="2">
         <v>1.58</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>11</v>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G90" s="2">
         <v>0.121</v>
@@ -3642,10 +3664,10 @@
         <v>4</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>16.2</v>
       </c>
@@ -3658,11 +3680,11 @@
       <c r="D91" s="2">
         <v>1.69</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>11</v>
+      <c r="E91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G91" s="2">
         <v>5.3999999999999999E-2</v>
@@ -3678,10 +3700,10 @@
         <v>4</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>16.2</v>
       </c>
@@ -3694,11 +3716,11 @@
       <c r="D92" s="2">
         <v>1.8</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>11</v>
+      <c r="E92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G92" s="2">
         <v>2.7E-2</v>
@@ -3714,10 +3736,10 @@
         <v>4</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>16.2</v>
       </c>
@@ -3730,11 +3752,11 @@
       <c r="D93" s="2">
         <v>1.91</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>11</v>
+      <c r="E93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G93" s="2">
         <v>1.7999999999999999E-2</v>
@@ -3750,10 +3772,10 @@
         <v>4</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>16.2</v>
       </c>
@@ -3766,11 +3788,11 @@
       <c r="D94" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>11</v>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G94" s="2">
         <v>3.9E-2</v>
@@ -3786,10 +3808,10 @@
         <v>4</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>16.2</v>
       </c>
@@ -3802,11 +3824,11 @@
       <c r="D95" s="2">
         <v>2.14</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>11</v>
+      <c r="E95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G95" s="2">
         <v>0.06</v>
@@ -3822,10 +3844,10 @@
         <v>4</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>16.2</v>
       </c>
@@ -3838,11 +3860,11 @@
       <c r="D96" s="2">
         <v>2.25</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>11</v>
+      <c r="E96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G96" s="2">
         <v>9.7000000000000003E-2</v>
@@ -3858,10 +3880,10 @@
         <v>4</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>16.2</v>
       </c>
@@ -3874,11 +3896,11 @@
       <c r="D97" s="2">
         <v>2.36</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>11</v>
+      <c r="E97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G97" s="2">
         <v>4.4999999999999998E-2</v>
@@ -3894,10 +3916,10 @@
         <v>4</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>16.2</v>
       </c>
@@ -3910,11 +3932,11 @@
       <c r="D98" s="2">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>11</v>
+      <c r="E98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G98" s="2">
         <v>4.1000000000000002E-2</v>
@@ -3930,10 +3952,10 @@
         <v>4</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>16.2</v>
       </c>
@@ -3946,11 +3968,11 @@
       <c r="D99" s="2">
         <v>2.57</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>11</v>
+      <c r="E99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G99" s="2">
         <v>4.1000000000000002E-2</v>
@@ -3966,10 +3988,10 @@
         <v>4</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>16.2</v>
       </c>
@@ -3982,11 +4004,11 @@
       <c r="D100" s="2">
         <v>2.67</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>11</v>
+      <c r="E100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G100" s="2">
         <v>0.115</v>
@@ -4002,10 +4024,10 @@
         <v>4</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>16.2</v>
       </c>
@@ -4018,11 +4040,11 @@
       <c r="D101" s="2">
         <v>2.76</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>11</v>
+      <c r="E101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G101" s="2">
         <v>0.16</v>
@@ -4038,10 +4060,10 @@
         <v>4</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>16.2</v>
       </c>
@@ -4054,11 +4076,11 @@
       <c r="D102" s="2">
         <v>2.85</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>11</v>
+      <c r="E102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G102" s="2">
         <v>3.9E-2</v>
@@ -4074,10 +4096,10 @@
         <v>4</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>16.2</v>
       </c>
@@ -4090,11 +4112,11 @@
       <c r="D103" s="2">
         <v>2.93</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>11</v>
+      <c r="E103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G103" s="2">
         <v>5.5E-2</v>
@@ -4110,10 +4132,10 @@
         <v>4</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>16.2</v>
       </c>
@@ -4126,11 +4148,11 @@
       <c r="D104" s="2">
         <v>3.01</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>11</v>
+      <c r="E104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G104" s="2">
         <v>0.16800000000000001</v>
@@ -4146,10 +4168,10 @@
         <v>4</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>16.2</v>
       </c>
@@ -4162,11 +4184,11 @@
       <c r="D105" s="2">
         <v>3.08</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>11</v>
+      <c r="E105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G105" s="2">
         <v>0.13900000000000001</v>
@@ -4182,10 +4204,10 @@
         <v>4</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>16.2</v>
       </c>
@@ -4198,11 +4220,11 @@
       <c r="D106" s="2">
         <v>3.15</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>11</v>
+      <c r="E106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G106" s="2">
         <v>5.5E-2</v>
@@ -4218,10 +4240,10 @@
         <v>4</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>16.2</v>
       </c>
@@ -4234,11 +4256,11 @@
       <c r="D107" s="2">
         <v>3.21</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>11</v>
+      <c r="E107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G107" s="2">
         <v>-1.2999999999999999E-2</v>
@@ -4254,10 +4276,10 @@
         <v>4</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>29.13</v>
       </c>
@@ -4270,11 +4292,11 @@
       <c r="D108" s="2">
         <v>1.17</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>11</v>
+      <c r="E108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G108" s="2">
         <v>-4.2000000000000003E-2</v>
@@ -4290,10 +4312,10 @@
         <v>5</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>29.13</v>
       </c>
@@ -4306,11 +4328,11 @@
       <c r="D109" s="2">
         <v>1.27</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>11</v>
+      <c r="E109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G109" s="2">
         <v>3.5000000000000003E-2</v>
@@ -4326,10 +4348,10 @@
         <v>5</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>29.13</v>
       </c>
@@ -4342,11 +4364,11 @@
       <c r="D110" s="2">
         <v>1.4</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>11</v>
+      <c r="E110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G110" s="2">
         <v>4.0000000000000001E-3</v>
@@ -4362,10 +4384,10 @@
         <v>5</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>29.13</v>
       </c>
@@ -4378,11 +4400,11 @@
       <c r="D111" s="2">
         <v>1.52</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>11</v>
+      <c r="E111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G111" s="2">
         <v>4.2999999999999997E-2</v>
@@ -4398,10 +4420,10 @@
         <v>5</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>29.13</v>
       </c>
@@ -4414,11 +4436,11 @@
       <c r="D112" s="2">
         <v>1.65</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>11</v>
+      <c r="E112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G112" s="2">
         <v>-1.0999999999999999E-2</v>
@@ -4434,10 +4456,10 @@
         <v>5</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>29.13</v>
       </c>
@@ -4450,11 +4472,11 @@
       <c r="D113" s="2">
         <v>1.78</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>11</v>
+      <c r="E113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G113" s="2">
         <v>-8.9999999999999993E-3</v>
@@ -4470,10 +4492,10 @@
         <v>5</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>29.13</v>
       </c>
@@ -4486,11 +4508,11 @@
       <c r="D114" s="2">
         <v>1.92</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>11</v>
+      <c r="E114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G114" s="2">
         <v>1.2E-2</v>
@@ -4506,10 +4528,10 @@
         <v>5</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>29.13</v>
       </c>
@@ -4522,11 +4544,11 @@
       <c r="D115" s="2">
         <v>2.0699999999999998</v>
       </c>
-      <c r="E115" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>11</v>
+      <c r="E115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G115" s="2">
         <v>0.01</v>
@@ -4542,10 +4564,10 @@
         <v>5</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>29.13</v>
       </c>
@@ -4558,11 +4580,11 @@
       <c r="D116" s="2">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>11</v>
+      <c r="E116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G116" s="2">
         <v>1.4E-2</v>
@@ -4578,10 +4600,10 @@
         <v>5</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>29.13</v>
       </c>
@@ -4594,11 +4616,11 @@
       <c r="D117" s="2">
         <v>2.38</v>
       </c>
-      <c r="E117" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>11</v>
+      <c r="E117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G117" s="2">
         <v>2.3E-2</v>
@@ -4614,10 +4636,10 @@
         <v>5</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>29.13</v>
       </c>
@@ -4630,11 +4652,11 @@
       <c r="D118" s="2">
         <v>2.5299999999999998</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>11</v>
+      <c r="E118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G118" s="2">
         <v>3.7999999999999999E-2</v>
@@ -4650,10 +4672,10 @@
         <v>5</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>29.13</v>
       </c>
@@ -4666,11 +4688,11 @@
       <c r="D119" s="2">
         <v>2.69</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>11</v>
+      <c r="E119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G119" s="2">
         <v>2.8000000000000001E-2</v>
@@ -4686,10 +4708,10 @@
         <v>5</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>29.13</v>
       </c>
@@ -4702,11 +4724,11 @@
       <c r="D120" s="2">
         <v>2.84</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>11</v>
+      <c r="E120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G120" s="2">
         <v>3.6999999999999998E-2</v>
@@ -4722,10 +4744,10 @@
         <v>5</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>29.13</v>
       </c>
@@ -4738,11 +4760,11 @@
       <c r="D121" s="2">
         <v>3</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>11</v>
+      <c r="E121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G121" s="2">
         <v>7.9000000000000001E-2</v>
@@ -4758,10 +4780,10 @@
         <v>5</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>29.13</v>
       </c>
@@ -4774,11 +4796,11 @@
       <c r="D122" s="2">
         <v>3.15</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>11</v>
+      <c r="E122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G122" s="2">
         <v>5.2999999999999999E-2</v>
@@ -4794,10 +4816,10 @@
         <v>5</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>29.13</v>
       </c>
@@ -4810,11 +4832,11 @@
       <c r="D123" s="2">
         <v>3.3</v>
       </c>
-      <c r="E123" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>11</v>
+      <c r="E123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G123" s="2">
         <v>4.5999999999999999E-2</v>
@@ -4830,10 +4852,10 @@
         <v>5</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>29.13</v>
       </c>
@@ -4846,11 +4868,11 @@
       <c r="D124" s="2">
         <v>3.45</v>
       </c>
-      <c r="E124" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>11</v>
+      <c r="E124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G124" s="2">
         <v>5.3999999999999999E-2</v>
@@ -4866,10 +4888,10 @@
         <v>5</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>29.13</v>
       </c>
@@ -4882,11 +4904,11 @@
       <c r="D125" s="2">
         <v>3.59</v>
       </c>
-      <c r="E125" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>11</v>
+      <c r="E125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G125" s="2">
         <v>4.9000000000000002E-2</v>
@@ -4902,10 +4924,10 @@
         <v>5</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>29.13</v>
       </c>
@@ -4918,11 +4940,11 @@
       <c r="D126" s="2">
         <v>3.73</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>11</v>
+      <c r="E126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G126" s="2">
         <v>0.02</v>
@@ -4938,10 +4960,10 @@
         <v>5</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>29.13</v>
       </c>
@@ -4954,11 +4976,11 @@
       <c r="D127" s="2">
         <v>3.85</v>
       </c>
-      <c r="E127" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>11</v>
+      <c r="E127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G127" s="2">
         <v>2.1000000000000001E-2</v>
@@ -4974,10 +4996,10 @@
         <v>5</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>29.13</v>
       </c>
@@ -4990,11 +5012,11 @@
       <c r="D128" s="2">
         <v>3.98</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>11</v>
+      <c r="E128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G128" s="2">
         <v>5.3999999999999999E-2</v>
@@ -5010,10 +5032,10 @@
         <v>5</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>29.13</v>
       </c>
@@ -5026,11 +5048,11 @@
       <c r="D129" s="2">
         <v>4.09</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>11</v>
+      <c r="E129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G129" s="2">
         <v>7.8E-2</v>
@@ -5046,10 +5068,10 @@
         <v>5</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>29.13</v>
       </c>
@@ -5062,11 +5084,11 @@
       <c r="D130" s="2">
         <v>4.2</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>11</v>
+      <c r="E130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G130" s="2">
         <v>7.1999999999999995E-2</v>
@@ -5082,10 +5104,10 @@
         <v>5</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>29.13</v>
       </c>
@@ -5098,11 +5120,11 @@
       <c r="D131" s="2">
         <v>4.3</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>11</v>
+      <c r="E131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G131" s="2">
         <v>6.3E-2</v>
@@ -5118,10 +5140,10 @@
         <v>5</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>29.13</v>
       </c>
@@ -5134,11 +5156,11 @@
       <c r="D132" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>11</v>
+      <c r="E132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G132" s="2">
         <v>0.01</v>
@@ -5154,10 +5176,10 @@
         <v>5</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>29.13</v>
       </c>
@@ -5170,11 +5192,11 @@
       <c r="D133" s="2">
         <v>4.47</v>
       </c>
-      <c r="E133" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>11</v>
+      <c r="E133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G133" s="2">
         <v>6.5000000000000002E-2</v>
@@ -5190,10 +5212,10 @@
         <v>5</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>29.13</v>
       </c>
@@ -5206,11 +5228,11 @@
       <c r="D134" s="2">
         <v>4.55</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>11</v>
+      <c r="E134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G134" s="2">
         <v>5.7000000000000002E-2</v>
@@ -5226,10 +5248,10 @@
         <v>5</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>29.13</v>
       </c>
@@ -5242,11 +5264,11 @@
       <c r="D135" s="2">
         <v>4.62</v>
       </c>
-      <c r="E135" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>11</v>
+      <c r="E135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G135" s="2">
         <v>2.3E-2</v>
@@ -5262,10 +5284,10 @@
         <v>5</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>29.13</v>
       </c>
@@ -5278,11 +5300,11 @@
       <c r="D136" s="2">
         <v>4.7</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>11</v>
+      <c r="E136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G136" s="2">
         <v>-0.19</v>
@@ -5298,10 +5320,10 @@
         <v>5</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>29.13</v>
       </c>
@@ -5314,11 +5336,11 @@
       <c r="D137" s="2">
         <v>2.91</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>11</v>
+      <c r="E137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G137" s="2">
         <v>4.3999999999999997E-2</v>
@@ -5334,10 +5356,10 @@
         <v>6</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>29.13</v>
       </c>
@@ -5350,11 +5372,11 @@
       <c r="D138" s="2">
         <v>3.17</v>
       </c>
-      <c r="E138" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>11</v>
+      <c r="E138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G138" s="2">
         <v>-0.02</v>
@@ -5370,10 +5392,10 @@
         <v>6</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>29.13</v>
       </c>
@@ -5386,11 +5408,11 @@
       <c r="D139" s="2">
         <v>3.48</v>
       </c>
-      <c r="E139" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>11</v>
+      <c r="E139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G139" s="2">
         <v>4.3999999999999997E-2</v>
@@ -5406,10 +5428,10 @@
         <v>6</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>29.13</v>
       </c>
@@ -5422,11 +5444,11 @@
       <c r="D140" s="2">
         <v>3.79</v>
       </c>
-      <c r="E140" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>11</v>
+      <c r="E140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G140" s="2">
         <v>4.3999999999999997E-2</v>
@@ -5442,10 +5464,10 @@
         <v>6</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>29.13</v>
       </c>
@@ -5458,11 +5480,11 @@
       <c r="D141" s="2">
         <v>4.1100000000000003</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>11</v>
+      <c r="E141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G141" s="2">
         <v>2.3E-2</v>
@@ -5478,10 +5500,10 @@
         <v>6</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>29.13</v>
       </c>
@@ -5494,11 +5516,11 @@
       <c r="D142" s="2">
         <v>4.4400000000000004</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>11</v>
+      <c r="E142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G142" s="2">
         <v>5.2999999999999999E-2</v>
@@ -5514,10 +5536,10 @@
         <v>6</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>29.13</v>
       </c>
@@ -5530,11 +5552,11 @@
       <c r="D143" s="2">
         <v>4.78</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>11</v>
+      <c r="E143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G143" s="2">
         <v>0.11</v>
@@ -5550,10 +5572,10 @@
         <v>6</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>29.13</v>
       </c>
@@ -5566,11 +5588,11 @@
       <c r="D144" s="2">
         <v>5.13</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>11</v>
+      <c r="E144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G144" s="2">
         <v>5.0999999999999997E-2</v>
@@ -5586,10 +5608,10 @@
         <v>6</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>29.13</v>
       </c>
@@ -5602,11 +5624,11 @@
       <c r="D145" s="2">
         <v>5.49</v>
       </c>
-      <c r="E145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>11</v>
+      <c r="E145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G145" s="2">
         <v>0.13300000000000001</v>
@@ -5622,10 +5644,10 @@
         <v>6</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>29.13</v>
       </c>
@@ -5638,11 +5660,11 @@
       <c r="D146" s="2">
         <v>5.86</v>
       </c>
-      <c r="E146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>11</v>
+      <c r="E146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G146" s="2">
         <v>6.7000000000000004E-2</v>
@@ -5658,10 +5680,10 @@
         <v>6</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>29.13</v>
       </c>
@@ -5674,11 +5696,11 @@
       <c r="D147" s="2">
         <v>6.23</v>
       </c>
-      <c r="E147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>11</v>
+      <c r="E147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G147" s="2">
         <v>8.7999999999999995E-2</v>
@@ -5694,10 +5716,10 @@
         <v>6</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>29.13</v>
       </c>
@@ -5710,11 +5732,11 @@
       <c r="D148" s="2">
         <v>6.6</v>
       </c>
-      <c r="E148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>11</v>
+      <c r="E148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G148" s="2">
         <v>5.0999999999999997E-2</v>
@@ -5730,10 +5752,10 @@
         <v>6</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>29.13</v>
       </c>
@@ -5746,11 +5768,11 @@
       <c r="D149" s="2">
         <v>6.97</v>
       </c>
-      <c r="E149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>11</v>
+      <c r="E149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G149" s="2">
         <v>0.10199999999999999</v>
@@ -5766,10 +5788,10 @@
         <v>6</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>29.13</v>
       </c>
@@ -5782,11 +5804,11 @@
       <c r="D150" s="2">
         <v>7.33</v>
       </c>
-      <c r="E150" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>11</v>
+      <c r="E150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G150" s="2">
         <v>0.108</v>
@@ -5802,10 +5824,10 @@
         <v>6</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>29.13</v>
       </c>
@@ -5818,11 +5840,11 @@
       <c r="D151" s="2">
         <v>7.69</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>11</v>
+      <c r="E151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G151" s="2">
         <v>0.14299999999999999</v>
@@ -5838,10 +5860,10 @@
         <v>6</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>29.13</v>
       </c>
@@ -5854,11 +5876,11 @@
       <c r="D152" s="2">
         <v>8.0299999999999994</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>11</v>
+      <c r="E152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G152" s="2">
         <v>8.8999999999999996E-2</v>
@@ -5874,10 +5896,10 @@
         <v>6</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>29.13</v>
       </c>
@@ -5890,11 +5912,11 @@
       <c r="D153" s="2">
         <v>8.3699999999999992</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>11</v>
+      <c r="E153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G153" s="2">
         <v>0.125</v>
@@ -5910,10 +5932,10 @@
         <v>6</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>29.13</v>
       </c>
@@ -5926,11 +5948,11 @@
       <c r="D154" s="2">
         <v>8.67</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>11</v>
+      <c r="E154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G154" s="2">
         <v>0.17199999999999999</v>
@@ -5946,10 +5968,10 @@
         <v>6</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>29.13</v>
       </c>
@@ -5962,11 +5984,11 @@
       <c r="D155" s="2">
         <v>8.98</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>11</v>
+      <c r="E155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G155" s="2">
         <v>9.4E-2</v>
@@ -5982,10 +6004,10 @@
         <v>6</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>29.13</v>
       </c>
@@ -5998,11 +6020,11 @@
       <c r="D156" s="2">
         <v>9.26</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>11</v>
+      <c r="E156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G156" s="2">
         <v>8.5999999999999993E-2</v>
@@ -6018,10 +6040,10 @@
         <v>6</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="26" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>29.13</v>
       </c>
@@ -6034,11 +6056,11 @@
       <c r="D157" s="2">
         <v>9.52</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>11</v>
+      <c r="E157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G157" s="2">
         <v>0.193</v>
@@ -6054,7 +6076,7 @@
         <v>6</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
